--- a/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/raider-skills_d/s8_csv_allskillsdone/csv/all_skills_s8.xlsx
+++ b/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/raider-skills_d/s8_csv_allskillsdone/csv/all_skills_s8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Documents/acode/ProKabaddi_API/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/raider-skills_d/s8_csv/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Documents/acode/ProKabaddi_API/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/raider-skills_d/s8_csv_allskillsdone/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D76554E-8FDF-DA49-9E03-C828C9ACE56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88255C77-8517-2144-93E7-A89E6014B8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19720" yWindow="900" windowWidth="20540" windowHeight="24940" xr2:uid="{67326E24-216F-0543-964E-DFD16F7CA009}"/>
   </bookViews>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4A9F80-C60C-5A45-99E0-5613766244C6}">
-  <dimension ref="A1:AT33"/>
+  <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AP30" sqref="AP30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS25" sqref="AS25:AT33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,697 +1840,695 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>62</v>
-      </c>
-      <c r="I24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24">
-        <v>46</v>
-      </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" t="s">
-        <v>29</v>
-      </c>
-      <c r="V24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="R25" t="s">
+        <v>30</v>
       </c>
       <c r="U25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="V25" t="s">
+        <v>30</v>
       </c>
       <c r="Y25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z25">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>30</v>
       </c>
       <c r="AC25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD25">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>30</v>
       </c>
       <c r="AG25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH25">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>30</v>
       </c>
       <c r="AK25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL25">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>30</v>
       </c>
       <c r="AO25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP25">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>30</v>
       </c>
       <c r="AS25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT25">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26">
+        <v>46</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26">
+        <v>53</v>
+      </c>
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z26">
+        <v>43</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD26">
+        <v>42</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH26">
+        <v>53</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL26">
+        <v>56</v>
+      </c>
+      <c r="AO26" t="s">
         <v>33</v>
       </c>
-      <c r="B26">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26">
-        <v>43</v>
-      </c>
-      <c r="I26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26">
-        <v>35</v>
-      </c>
-      <c r="M26" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26">
-        <v>41</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26">
-        <v>47</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="AP26">
+        <v>44</v>
+      </c>
+      <c r="AS26" t="s">
         <v>32</v>
       </c>
-      <c r="V26">
-        <v>33</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z26">
-        <v>39</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD26">
-        <v>37</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH26">
-        <v>41</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL26">
-        <v>51</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP26">
-        <v>43</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>33</v>
-      </c>
       <c r="AT26">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>38</v>
+      </c>
+      <c r="M27" t="s">
         <v>33</v>
       </c>
-      <c r="F27">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="N27">
+        <v>41</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27">
+        <v>47</v>
+      </c>
+      <c r="U27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27">
         <v>33</v>
       </c>
-      <c r="J27">
-        <v>34</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="Y27" t="s">
         <v>31</v>
       </c>
-      <c r="N27">
+      <c r="Z27">
+        <v>39</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD27">
         <v>37</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL27">
+        <v>51</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP27">
+        <v>43</v>
+      </c>
+      <c r="AS27" t="s">
         <v>33</v>
       </c>
-      <c r="R27">
-        <v>31</v>
-      </c>
-      <c r="U27" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27">
-        <v>30</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z27">
-        <v>37</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD27">
-        <v>35</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH27">
-        <v>40</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL27">
-        <v>37</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP27">
-        <v>34</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>31</v>
-      </c>
       <c r="AT27">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
         <v>35</v>
       </c>
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28">
+        <v>35</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28">
+        <v>31</v>
+      </c>
+      <c r="U28" t="s">
         <v>34</v>
       </c>
-      <c r="F28">
-        <v>28</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="V28">
+        <v>30</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z28">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28">
+        <v>35</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH28">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL28">
+        <v>37</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP28">
         <v>34</v>
       </c>
-      <c r="J28">
-        <v>24</v>
-      </c>
-      <c r="M28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28">
-        <v>28</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28">
-        <v>30</v>
-      </c>
-      <c r="U28" t="s">
-        <v>33</v>
-      </c>
-      <c r="V28">
-        <v>22</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z28">
-        <v>34</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD28">
-        <v>22</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH28">
-        <v>30</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL28">
-        <v>35</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP28">
+      <c r="AS28" t="s">
         <v>31</v>
       </c>
-      <c r="AS28" t="s">
-        <v>35</v>
-      </c>
       <c r="AT28">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F29">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J29">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29">
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29">
+        <v>30</v>
+      </c>
+      <c r="U29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z29">
         <v>34</v>
       </c>
-      <c r="N29">
-        <v>21</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="AC29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD29">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH29">
+        <v>30</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL29">
+        <v>35</v>
+      </c>
+      <c r="AO29" t="s">
         <v>34</v>
-      </c>
-      <c r="R29">
-        <v>17</v>
-      </c>
-      <c r="U29" t="s">
-        <v>35</v>
-      </c>
-      <c r="V29">
-        <v>17</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z29">
-        <v>22</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD29">
-        <v>20</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH29">
-        <v>27</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>34</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>31</v>
       </c>
       <c r="AP29">
         <v>31</v>
       </c>
       <c r="AS29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AT29">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R30">
         <v>17</v>
       </c>
       <c r="U30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V30">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z30">
+        <v>22</v>
+      </c>
+      <c r="AC30" t="s">
         <v>38</v>
       </c>
-      <c r="Z30">
-        <v>14</v>
-      </c>
-      <c r="AC30" t="s">
+      <c r="AD30">
+        <v>20</v>
+      </c>
+      <c r="AG30" t="s">
         <v>34</v>
       </c>
-      <c r="AD30">
-        <v>14</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>38</v>
-      </c>
       <c r="AH30">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AK30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL30">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AP30">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AS30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AT30">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
         <v>38</v>
       </c>
-      <c r="B31">
+      <c r="N31">
+        <v>16</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31">
+        <v>17</v>
+      </c>
+      <c r="U31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31">
+        <v>14</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z31">
+        <v>14</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD31">
+        <v>14</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH31">
+        <v>16</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL31">
+        <v>16</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP31">
+        <v>16</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>15</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32">
+        <v>12</v>
+      </c>
+      <c r="U32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32">
+        <v>11</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z32">
         <v>8</v>
       </c>
-      <c r="E31" t="s">
+      <c r="AC32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH32">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="s">
         <v>38</v>
-      </c>
-      <c r="F31">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31">
-        <v>8</v>
-      </c>
-      <c r="M31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N31">
-        <v>15</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R31">
-        <v>12</v>
-      </c>
-      <c r="U31" t="s">
-        <v>38</v>
-      </c>
-      <c r="V31">
-        <v>11</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z31">
-        <v>8</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD31">
-        <v>10</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH31">
-        <v>15</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL31">
-        <v>11</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP31">
-        <v>12</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="M32" t="s">
-        <v>36</v>
-      </c>
-      <c r="N32">
-        <v>14</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>37</v>
-      </c>
-      <c r="R32">
-        <v>11</v>
-      </c>
-      <c r="U32" t="s">
-        <v>37</v>
-      </c>
-      <c r="V32">
-        <v>10</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z32">
-        <v>6</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD32">
-        <v>7</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH32">
-        <v>13</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>37</v>
       </c>
       <c r="AL32">
         <v>11</v>
       </c>
       <c r="AO32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP32">
+        <v>12</v>
+      </c>
+      <c r="AS32" t="s">
         <v>38</v>
       </c>
-      <c r="AP32">
+      <c r="AT32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33">
+        <v>14</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33">
         <v>11</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="U33" t="s">
         <v>37</v>
       </c>
-      <c r="AT32">
+      <c r="V33">
+        <v>10</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD33">
+        <v>7</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH33">
+        <v>13</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL33">
+        <v>11</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP33">
+        <v>11</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT33">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="13:42" x14ac:dyDescent="0.2">
-      <c r="M33" t="s">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
         <v>40</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>0</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q34" t="s">
         <v>40</v>
       </c>
-      <c r="R33">
+      <c r="R34">
         <v>0</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG34" t="s">
         <v>40</v>
       </c>
-      <c r="AH33">
+      <c r="AH34">
         <v>0</v>
       </c>
-      <c r="AO33" t="s">
+      <c r="AO34" t="s">
         <v>40</v>
       </c>
-      <c r="AP33">
+      <c r="AP34">
         <v>1</v>
       </c>
     </row>
